--- a/xlsx/埃尔维斯·普雷斯利_intext.xlsx
+++ b/xlsx/埃尔维斯·普雷斯利_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="794">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="792">
   <si>
     <t>埃尔维斯·普雷斯利</t>
   </si>
@@ -29,7 +29,7 @@
     <t>Elvis (消歧义)</t>
   </si>
   <si>
-    <t>政策_政策_美國_埃尔维斯·普雷斯利</t>
+    <t>政策_政策_美国_埃尔维斯·普雷斯利</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8C%AB%E7%8E%8B_(%E6%B6%88%E6%AD%A7%E4%B9%89)</t>
@@ -41,19 +41,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%89%BE%E7%B6%AD%E6%96%AF</t>
   </si>
   <si>
-    <t>艾維斯</t>
+    <t>艾维斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%89%BE%E7%B6%AD%E6%96%AF%C2%B7%E6%99%AE%E9%87%8C%E6%96%AF%E8%90%8A_(%E6%B6%88%E6%AD%A7%E7%BE%A9)</t>
   </si>
   <si>
-    <t>艾維斯·普里斯萊 (消歧義)</t>
+    <t>艾维斯·普里斯莱 (消歧义)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%A5%BF%E8%A5%BF%E6%AF%94%E5%B7%9E</t>
@@ -65,7 +65,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%8E%E7%B8%A3_(%E5%AF%86%E8%A5%BF%E8%A5%BF%E6%AF%94%E5%B7%9E)</t>
   </si>
   <si>
-    <t>李縣 (密西西比州)</t>
+    <t>李县 (密西西比州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BE%E7%8F%80%E6%B4%9B_(%E5%AF%86%E8%A5%BF%E8%A5%BF%E6%AF%94%E5%B7%9E)</t>
@@ -77,7 +77,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%89%BE%E7%B6%AD%E6%96%AF%C2%B7%E6%99%AE%E9%87%8C%E6%96%AF%E8%90%8A%E5%87%BA%E7%94%9F%E5%9C%B0</t>
   </si>
   <si>
-    <t>艾維斯·普里斯萊出生地</t>
+    <t>艾维斯·普里斯莱出生地</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%B0%E7%BA%B3%E8%A5%BF%E5%B7%9E</t>
@@ -89,13 +89,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AC%9D%E7%88%BE%E6%AF%94%E7%B8%A3_(%E7%94%B0%E7%B4%8D%E8%A5%BF%E5%B7%9E)</t>
   </si>
   <si>
-    <t>謝爾比縣 (田納西州)</t>
+    <t>谢尔比县 (田纳西州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9B%BC%E9%9D%9E%E6%96%AF_(%E7%94%B0%E7%B4%8D%E8%A5%BF%E5%B7%9E)</t>
   </si>
   <si>
-    <t>曼非斯 (田納西州)</t>
+    <t>曼非斯 (田纳西州)</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Baptist_Memorial_Hospital-Memphis</t>
@@ -107,7 +107,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%97%A5%E7%89%A9%E9%81%8E%E9%87%8F</t>
   </si>
   <si>
-    <t>藥物過量</t>
+    <t>药物过量</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BF%83%E8%82%8C%E6%A2%97%E6%AD%BB</t>
@@ -119,7 +119,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%84%AA%E9%9B%85%E5%9C%92</t>
   </si>
   <si>
-    <t>優雅園</t>
+    <t>优雅园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%8C%E6%89%8B</t>
@@ -131,7 +131,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9F%B3%E6%A8%82%E5%AE%B6</t>
   </si>
   <si>
-    <t>音樂家</t>
+    <t>音乐家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BC%94%E5%91%98</t>
@@ -143,7 +143,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BD%9C%E8%A9%9E%E5%AE%B6</t>
   </si>
   <si>
-    <t>作詞家</t>
+    <t>作词家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BD%9C%E6%9B%B2%E5%AE%B6</t>
@@ -161,19 +161,19 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%94%E6%97%AC%E7%AF%80%E9%81%8B%E5%8B%95</t>
   </si>
   <si>
-    <t>五旬節運動</t>
+    <t>五旬节运动</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E8%8E%89%E8%A5%BF%E6%8B%89%C2%B7%E6%99%AE%E9%87%8C%E6%96%AF%E8%90%8A</t>
   </si>
   <si>
-    <t>普莉西拉·普里斯萊</t>
+    <t>普莉西拉·普里斯莱</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BA%97%E8%8E%8E%C2%B7%E7%91%AA%E9%BA%97%C2%B7%E6%99%AE%E9%87%8C%E6%96%AF%E8%90%8A</t>
   </si>
   <si>
-    <t>麗莎·瑪麗·普里斯萊</t>
+    <t>丽莎·玛丽·普里斯莱</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Riley_Keough</t>
@@ -191,7 +191,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B5%81%E8%A1%8C_(%E9%9F%B3%E6%A8%82%E9%A1%9E%E5%9E%8B)</t>
   </si>
   <si>
-    <t>流行 (音樂類型)</t>
+    <t>流行 (音乐类型)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E5%8D%A1%E6%AF%94%E9%87%8C</t>
@@ -203,31 +203,31 @@
     <t>https://zh.wikipedia.org/wiki/%E9%84%89%E6%9D%91%E9%9F%B3%E6%A8%82</t>
   </si>
   <si>
-    <t>鄉村音樂</t>
+    <t>乡村音乐</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%97%8D%E8%AA%BF</t>
   </si>
   <si>
-    <t>藍調</t>
+    <t>蓝调</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E9%9F%B3%E9%9F%B3%E6%A8%82</t>
   </si>
   <si>
-    <t>福音音樂</t>
+    <t>福音音乐</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9D%88%E9%AD%82%E6%A8%82</t>
   </si>
   <si>
-    <t>靈魂樂</t>
+    <t>灵魂乐</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AF%80%E5%A5%8F%E8%97%8D%E8%AA%BF</t>
   </si>
   <si>
-    <t>節奏藍調</t>
+    <t>节奏蓝调</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%8C%E5%94%B1</t>
@@ -245,7 +245,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%8B%BC%E7%90%B4</t>
   </si>
   <si>
-    <t>鋼琴</t>
+    <t>钢琴</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Sun_Records</t>
@@ -293,7 +293,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%99%B8%E8%BB%8D</t>
   </si>
   <si>
-    <t>美國陸軍</t>
+    <t>美国陆军</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A3%AB</t>
@@ -335,7 +335,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E5%BD%B1%E6%BC%94%E5%93%A1</t>
   </si>
   <si>
-    <t>電影演員</t>
+    <t>电影演员</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Cultural_impact_of_Elvis_Presley</t>
@@ -353,21 +353,18 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%99%E8%83%9E%E8%83%8E</t>
   </si>
   <si>
-    <t>雙胞胎</t>
+    <t>双胞胎</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%BB%E7%94%A2</t>
   </si>
   <si>
-    <t>死產</t>
+    <t>死产</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%B0%E7%B4%8D%E8%A5%BF%E5%B7%9E</t>
   </si>
   <si>
-    <t>田納西州</t>
-  </si>
-  <si>
     <t>https://en.wikipedia.org/wiki/Sam_Phillips</t>
   </si>
   <si>
@@ -395,7 +392,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E8%AA%BF%E5%BC%B7%E7%AF%80%E5%A5%8F</t>
   </si>
   <si>
-    <t>基調強節奏</t>
+    <t>基调强节奏</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Colonel_Tom_Parker</t>
@@ -413,19 +410,19 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E8%A6%96%E8%81%AF%E6%92%AD%E7%B6%B2</t>
   </si>
   <si>
-    <t>電視聯播網</t>
+    <t>电视联播网</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E8%A3%94%E7%BE%8E%E5%9C%8B%E4%BA%BA%E6%B0%91%E6%AC%8A%E9%81%8B%E5%8B%95</t>
   </si>
   <si>
-    <t>非裔美國人民權運動</t>
+    <t>非裔美国人民权运动</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%90%B5%E8%A1%80%E6%9F%94%E6%83%85_(1956%E5%B9%B4%E9%9B%BB%E5%BD%B1)</t>
   </si>
   <si>
-    <t>鐵血柔情 (1956年電影)</t>
+    <t>铁血柔情 (1956年电影)</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Elvis_(1968_TV_program)</t>
@@ -437,7 +434,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E6%96%AF%E7%B6%AD%E5%8A%A0%E6%96%AF</t>
   </si>
   <si>
-    <t>拉斯維加斯</t>
+    <t>拉斯维加斯</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Aloha_from_Hawaii_Via_Satellite</t>
@@ -449,13 +446,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BF%AA%E6%81%A9%C2%B7%E9%A6%AC%E4%B8%81</t>
   </si>
   <si>
-    <t>迪恩·馬丁</t>
+    <t>迪恩·马丁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E7%88%BE%C2%B7%E5%93%88%E5%88%A9</t>
   </si>
   <si>
-    <t>比爾·哈利</t>
+    <t>比尔·哈利</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9F%A5%E5%85%8B%C2%B7%E8%B4%9D%E9%87%8C</t>
@@ -473,7 +470,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%82%91%E7%91%9E%C2%B7%E6%9D%8E%C2%B7%E5%8A%89%E6%98%93%E6%96%AF</t>
   </si>
   <si>
-    <t>傑瑞·李·劉易斯</t>
+    <t>杰瑞·李·刘易斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E7%90%86%E6%9F%A5%E5%BE%B7</t>
@@ -485,13 +482,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9F%B3%E6%A8%82%E9%A1%9E%E5%9E%8B</t>
   </si>
   <si>
-    <t>音樂類型</t>
+    <t>音乐类型</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%95%86%E6%A5%AD</t>
   </si>
   <si>
-    <t>商業</t>
+    <t>商业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%95%85%E9%94%80%E9%9F%B3%E4%B9%90%E8%89%BA%E4%BA%BA%E5%88%97%E8%A1%A8</t>
@@ -503,7 +500,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%91%9B%E8%90%8A%E7%BE%8E%E7%8D%8E</t>
   </si>
   <si>
-    <t>葛萊美獎</t>
+    <t>葛莱美奖</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Grammy_Lifetime_Achievement_Award</t>
@@ -515,13 +512,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%89%BE%E7%B6%AD%E6%96%AF%C2%B7%E6%99%AE%E9%87%8C%E6%96%AF%E8%90%8A%E8%A2%AB%E9%81%B8%E5%85%A5%E7%9A%84%E5%90%8D%E4%BA%BA%E5%A0%82%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>艾維斯·普里斯萊被選入的名人堂列表</t>
+    <t>艾维斯·普里斯莱被选入的名人堂列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BA%97%E8%8E%8E%C2%B7%E7%91%AA%E9%BA%97</t>
   </si>
   <si>
-    <t>麗莎·瑪麗</t>
+    <t>丽莎·玛丽</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Old_Shep</t>
@@ -563,7 +560,7 @@
     <t>https://zh.wikipedia.org/wiki/Elvis_Presley_(%E5%90%8C%E5%90%8D%E5%B0%88%E8%BC%AF)</t>
   </si>
   <si>
-    <t>Elvis Presley (同名專輯)</t>
+    <t>Elvis Presley (同名专辑)</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Love_Me_Tender_(song)</t>
@@ -623,7 +620,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%91%AA%E9%BA%97%E8%93%AE%C2%B7%E5%A4%A2%E9%9C%B2</t>
   </si>
   <si>
-    <t>瑪麗蓮·夢露</t>
+    <t>玛丽莲·梦露</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%87%AF%E8%BF%AA%E6%8B%89%E5%85%8B</t>
@@ -641,7 +638,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E5%AE%AE</t>
   </si>
   <si>
-    <t>白宮</t>
+    <t>白宫</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/How_Great_Thou_Art</t>
@@ -653,7 +650,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8A%AB%E9%A0%AD%E5%9B%9B</t>
   </si>
   <si>
-    <t>披頭四</t>
+    <t>披头四</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/U.S._Male</t>
@@ -665,13 +662,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%B8%BD%E7%B5%B1</t>
   </si>
   <si>
-    <t>美國總統</t>
+    <t>美国总统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%B6%E9%9F%B3%E6%A9%9F</t>
   </si>
   <si>
-    <t>收音機</t>
+    <t>收音机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E7%9A%AE%E5%BE%B7%E5%9F%8E_(%E5%8D%97%E8%BE%BE%E7%A7%91%E4%BB%96%E5%B7%9E)</t>
@@ -683,15 +680,12 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E7%BF%B0%C2%B7%E8%97%8D%E5%84%82</t>
   </si>
   <si>
-    <t>約翰·藍儂</t>
+    <t>约翰·蓝侬</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD</t>
   </si>
   <si>
-    <t>美国</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%87%E5%8C%96</t>
   </si>
   <si>
@@ -1055,7 +1049,7 @@
     <t>https://zh.wikipedia.org/wiki/King_Creole_(%E8%89%BE%E7%B6%AD%E6%96%AF%C2%B7%E6%99%AE%E9%87%8C%E6%96%AF%E8%90%8A%E5%B0%88%E8%BC%AF)</t>
   </si>
   <si>
-    <t>King Creole (艾維斯·普里斯萊專輯)</t>
+    <t>King Creole (艾维斯·普里斯莱专辑)</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Girls!_Girls!_Girls!</t>
@@ -1151,13 +1145,13 @@
     <t>https://zh.wikipedia.org/wiki/Q_(%E9%9B%9C%E8%AA%8C)</t>
   </si>
   <si>
-    <t>Q (雜誌)</t>
+    <t>Q (杂志)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BB%BE%E7%9F%B3_(%E9%9B%9C%E8%AA%8C)</t>
   </si>
   <si>
-    <t>滾石 (雜誌)</t>
+    <t>滚石 (杂志)</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Presley</t>
@@ -1181,13 +1175,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84%E9%83%B5%E5%A0%B1</t>
   </si>
   <si>
-    <t>紐約郵報</t>
+    <t>纽约邮报</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AF%8F%E6%97%A5%E5%BF%AB%E5%A0%B1</t>
   </si>
   <si>
-    <t>每日快報</t>
+    <t>每日快报</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%92%E8%81%94%E7%BD%91%E7%94%B5%E5%BD%B1%E6%95%B0%E6%8D%AE%E5%BA%93</t>
@@ -1223,7 +1217,7 @@
     <t>https://zh.wikipedia.org/wiki/Template_talk:%E8%89%BE%E7%B6%AD%E6%96%AF%C2%B7%E6%99%AE%E9%87%8C%E6%96%AF%E8%90%8A</t>
   </si>
   <si>
-    <t>Template talk-艾維斯·普里斯萊</t>
+    <t>Template talk-艾维斯·普里斯莱</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Elvis_Presley_albums_discography</t>
@@ -1247,7 +1241,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%89%BE%E7%B6%AD%E6%96%AF%C2%B7%E6%99%AE%E9%87%8C%E6%96%AF%E8%90%8A_(%E5%90%8C%E5%90%8D%E5%B0%88%E8%BC%AF)</t>
   </si>
   <si>
-    <t>艾維斯·普里斯萊 (同名專輯)</t>
+    <t>艾维斯·普里斯莱 (同名专辑)</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Love_Letters_From_Elvis</t>
@@ -1325,7 +1319,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B2%93%E7%8E%8B_(1979%E5%B9%B4%E9%9B%BB%E5%BD%B1)</t>
   </si>
   <si>
-    <t>貓王 (1979年電影)</t>
+    <t>猫王 (1979年电影)</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Elvis_Meets_Nixon</t>
@@ -1343,13 +1337,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%95%B6%E8%B2%93%E7%8E%8B%E7%A2%B0%E4%B8%8A%E7%B8%BD%E7%B5%B1</t>
   </si>
   <si>
-    <t>當貓王碰上總統</t>
+    <t>当猫王碰上总统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%82%B7%E5%BF%83%E6%97%85%E9%A4%A8</t>
   </si>
   <si>
-    <t>傷心旅館</t>
+    <t>伤心旅馆</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Hound_Dog_(song)</t>
@@ -1427,7 +1421,7 @@
     <t>https://en.wikipedia.org/wiki/%E6%96%87%E5%8C%96%E5%BD%B1%E9%9F%BF</t>
   </si>
   <si>
-    <t>en-文化影響</t>
+    <t>en-文化影响</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Personal_relationships_of_Elvis_Presley</t>
@@ -1475,7 +1469,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%89%BE%E7%B6%AD%E6%96%AF%C2%B7%E6%99%AE%E9%87%8C%E6%96%AF%E8%90%8A%E6%AD%8C%E6%9B%B2%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>艾維斯·普里斯萊歌曲列表</t>
+    <t>艾维斯·普里斯莱歌曲列表</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/List_of_songs_about_or_referencing_Elvis_Presley</t>
@@ -1517,13 +1511,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%AB%E5%80%8B%E8%B2%93%E7%8E%8B</t>
   </si>
   <si>
-    <t>八個貓王</t>
+    <t>八个猫王</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E5%80%8B%E8%B2%93%E7%8E%8B</t>
   </si>
   <si>
-    <t>三個貓王</t>
+    <t>三个猫王</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Elvis_Presley%27s_Pink_Cadillac</t>
@@ -1547,7 +1541,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%97%9C%E6%96%BC%E8%89%BE%E7%B6%AD%E6%96%AF%C2%B7%E6%99%AE%E9%87%8C%E6%96%AF%E8%90%8A%E7%9A%84%E9%99%B0%E8%AC%80%E8%AB%96</t>
   </si>
   <si>
-    <t>關於艾維斯·普里斯萊的陰謀論</t>
+    <t>关于艾维斯·普里斯莱的阴谋论</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Book:Elvis_Presley</t>
@@ -1619,7 +1613,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%97%8D%E8%89%B2%E9%BA%82%E7%9A%AE%E9%9E%8B</t>
   </si>
   <si>
-    <t>藍色麂皮鞋</t>
+    <t>蓝色麂皮鞋</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Tutti_Frutti_(song)</t>
@@ -1649,7 +1643,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%97%8D%E6%9C%88_(%E6%AD%8C%E6%9B%B2)</t>
   </si>
   <si>
-    <t>藍月 (歌曲)</t>
+    <t>蓝月 (歌曲)</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/I%27ll_Never_Let_You_Go</t>
@@ -1829,7 +1823,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%88%91%E8%AA%AA%E4%BA%86%E4%BB%80%E9%BA%BC</t>
   </si>
   <si>
-    <t>我說了什麼</t>
+    <t>我说了什么</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Viva_Las_Vegas_(song)</t>
@@ -1961,7 +1955,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BD%A0%E6%B0%B8%E9%81%A0%E4%B8%8D%E6%9C%83%E7%8D%A8%E8%A1%8C</t>
   </si>
   <si>
-    <t>你永遠不會獨行</t>
+    <t>你永远不会独行</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Your_Time_Hasn%27t_Come_Yet,_Baby</t>
@@ -2069,7 +2063,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E5%91%BD_(%E8%89%BE%E7%B6%AD%E6%96%AF%C2%B7%E6%99%AE%E9%87%8C%E6%96%AF%E8%90%8A%E7%9A%84%E6%AD%8C%E6%9B%B2)</t>
   </si>
   <si>
-    <t>生命 (艾維斯·普里斯萊的歌曲)</t>
+    <t>生命 (艾维斯·普里斯莱的歌曲)</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Merry_Christmas_Baby</t>
@@ -2183,7 +2177,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%93%89%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美哉美國</t>
+    <t>美哉美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%94%E6%94%BE%E7%9A%84%E6%97%8B%E5%BE%8B</t>
@@ -2207,7 +2201,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%90%96%E6%BB%BE%E5%90%8D%E4%BA%BA%E5%A0%82%E6%88%90%E5%93%A1%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>搖滾名人堂成員列表</t>
+    <t>摇滚名人堂成员列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A9%B9%E5%A7%86%E5%A3%AB%C2%B7%E5%B8%83%E6%9C%97</t>
@@ -2273,7 +2267,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%84%89%E6%9D%91%E9%9F%B3%E6%A8%82%E5%90%8D%E4%BA%BA%E5%A0%82</t>
   </si>
   <si>
-    <t>鄉村音樂名人堂</t>
+    <t>乡村音乐名人堂</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/List_of_Country_Music_Hall_of_Fame_inductees</t>
@@ -2297,13 +2291,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A1%83%E8%8E%89%C2%B7%E5%B7%B4%E9%A0%93</t>
   </si>
   <si>
-    <t>桃莉·巴頓</t>
+    <t>桃莉·巴顿</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -2321,7 +2315,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%A8%99%E6%BA%96%E5%90%8D%E7%A8%B1%E8%AD%98%E5%88%A5%E7%A2%BC</t>
   </si>
   <si>
-    <t>國際標準名稱識別碼</t>
+    <t>国际标准名称识别码</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -2339,7 +2333,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%AD%B8%E6%96%87%E6%AA%94%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>大學文檔系統</t>
+    <t>大学文档系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
@@ -2363,13 +2357,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E6%B4%B2%E5%9C%8B%E5%AE%B6%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>澳洲國家圖書館</t>
+    <t>澳洲国家图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8D%B7%E5%85%8B%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
@@ -4478,7 +4472,7 @@
         <v>115</v>
       </c>
       <c r="F60" t="s">
-        <v>116</v>
+        <v>22</v>
       </c>
       <c r="G60" t="n">
         <v>5</v>
@@ -4533,10 +4527,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
+        <v>116</v>
+      </c>
+      <c r="F62" t="s">
         <v>117</v>
-      </c>
-      <c r="F62" t="s">
-        <v>118</v>
       </c>
       <c r="G62" t="n">
         <v>5</v>
@@ -4562,10 +4556,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
+        <v>118</v>
+      </c>
+      <c r="F63" t="s">
         <v>119</v>
-      </c>
-      <c r="F63" t="s">
-        <v>120</v>
       </c>
       <c r="G63" t="n">
         <v>2</v>
@@ -4591,10 +4585,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
+        <v>120</v>
+      </c>
+      <c r="F64" t="s">
         <v>121</v>
-      </c>
-      <c r="F64" t="s">
-        <v>122</v>
       </c>
       <c r="G64" t="n">
         <v>2</v>
@@ -4620,10 +4614,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
+        <v>122</v>
+      </c>
+      <c r="F65" t="s">
         <v>123</v>
-      </c>
-      <c r="F65" t="s">
-        <v>124</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -4649,10 +4643,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
+        <v>124</v>
+      </c>
+      <c r="F66" t="s">
         <v>125</v>
-      </c>
-      <c r="F66" t="s">
-        <v>126</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -4678,10 +4672,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
+        <v>126</v>
+      </c>
+      <c r="F67" t="s">
         <v>127</v>
-      </c>
-      <c r="F67" t="s">
-        <v>128</v>
       </c>
       <c r="G67" t="n">
         <v>3</v>
@@ -4736,10 +4730,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
+        <v>128</v>
+      </c>
+      <c r="F69" t="s">
         <v>129</v>
-      </c>
-      <c r="F69" t="s">
-        <v>130</v>
       </c>
       <c r="G69" t="n">
         <v>3</v>
@@ -4765,10 +4759,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
+        <v>130</v>
+      </c>
+      <c r="F70" t="s">
         <v>131</v>
-      </c>
-      <c r="F70" t="s">
-        <v>132</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -4823,10 +4817,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
+        <v>132</v>
+      </c>
+      <c r="F72" t="s">
         <v>133</v>
-      </c>
-      <c r="F72" t="s">
-        <v>134</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -4852,10 +4846,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
+        <v>134</v>
+      </c>
+      <c r="F73" t="s">
         <v>135</v>
-      </c>
-      <c r="F73" t="s">
-        <v>136</v>
       </c>
       <c r="G73" t="n">
         <v>2</v>
@@ -4881,10 +4875,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
+        <v>136</v>
+      </c>
+      <c r="F74" t="s">
         <v>137</v>
-      </c>
-      <c r="F74" t="s">
-        <v>138</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -4910,10 +4904,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
+        <v>138</v>
+      </c>
+      <c r="F75" t="s">
         <v>139</v>
-      </c>
-      <c r="F75" t="s">
-        <v>140</v>
       </c>
       <c r="G75" t="n">
         <v>2</v>
@@ -4939,10 +4933,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
+        <v>140</v>
+      </c>
+      <c r="F76" t="s">
         <v>141</v>
-      </c>
-      <c r="F76" t="s">
-        <v>142</v>
       </c>
       <c r="G76" t="n">
         <v>3</v>
@@ -4997,10 +4991,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
+        <v>142</v>
+      </c>
+      <c r="F78" t="s">
         <v>143</v>
-      </c>
-      <c r="F78" t="s">
-        <v>144</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -5026,10 +5020,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
+        <v>144</v>
+      </c>
+      <c r="F79" t="s">
         <v>145</v>
-      </c>
-      <c r="F79" t="s">
-        <v>146</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -5055,10 +5049,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
+        <v>146</v>
+      </c>
+      <c r="F80" t="s">
         <v>147</v>
-      </c>
-      <c r="F80" t="s">
-        <v>148</v>
       </c>
       <c r="G80" t="n">
         <v>2</v>
@@ -5084,10 +5078,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
+        <v>148</v>
+      </c>
+      <c r="F81" t="s">
         <v>149</v>
-      </c>
-      <c r="F81" t="s">
-        <v>150</v>
       </c>
       <c r="G81" t="n">
         <v>2</v>
@@ -5113,10 +5107,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
+        <v>150</v>
+      </c>
+      <c r="F82" t="s">
         <v>151</v>
-      </c>
-      <c r="F82" t="s">
-        <v>152</v>
       </c>
       <c r="G82" t="n">
         <v>2</v>
@@ -5142,10 +5136,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
+        <v>152</v>
+      </c>
+      <c r="F83" t="s">
         <v>153</v>
-      </c>
-      <c r="F83" t="s">
-        <v>154</v>
       </c>
       <c r="G83" t="n">
         <v>2</v>
@@ -5171,10 +5165,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
+        <v>154</v>
+      </c>
+      <c r="F84" t="s">
         <v>155</v>
-      </c>
-      <c r="F84" t="s">
-        <v>156</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -5200,10 +5194,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
+        <v>156</v>
+      </c>
+      <c r="F85" t="s">
         <v>157</v>
-      </c>
-      <c r="F85" t="s">
-        <v>158</v>
       </c>
       <c r="G85" t="n">
         <v>2</v>
@@ -5258,10 +5252,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
+        <v>158</v>
+      </c>
+      <c r="F87" t="s">
         <v>159</v>
-      </c>
-      <c r="F87" t="s">
-        <v>160</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -5287,10 +5281,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
+        <v>160</v>
+      </c>
+      <c r="F88" t="s">
         <v>161</v>
-      </c>
-      <c r="F88" t="s">
-        <v>162</v>
       </c>
       <c r="G88" t="n">
         <v>2</v>
@@ -5316,10 +5310,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
+        <v>162</v>
+      </c>
+      <c r="F89" t="s">
         <v>163</v>
-      </c>
-      <c r="F89" t="s">
-        <v>164</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -5345,10 +5339,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
+        <v>164</v>
+      </c>
+      <c r="F90" t="s">
         <v>165</v>
-      </c>
-      <c r="F90" t="s">
-        <v>166</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -5374,10 +5368,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
+        <v>166</v>
+      </c>
+      <c r="F91" t="s">
         <v>167</v>
-      </c>
-      <c r="F91" t="s">
-        <v>168</v>
       </c>
       <c r="G91" t="n">
         <v>5</v>
@@ -5432,10 +5426,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
+        <v>168</v>
+      </c>
+      <c r="F93" t="s">
         <v>169</v>
-      </c>
-      <c r="F93" t="s">
-        <v>170</v>
       </c>
       <c r="G93" t="n">
         <v>2</v>
@@ -5461,10 +5455,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
+        <v>170</v>
+      </c>
+      <c r="F94" t="s">
         <v>171</v>
-      </c>
-      <c r="F94" t="s">
-        <v>172</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -5490,10 +5484,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
+        <v>172</v>
+      </c>
+      <c r="F95" t="s">
         <v>173</v>
-      </c>
-      <c r="F95" t="s">
-        <v>174</v>
       </c>
       <c r="G95" t="n">
         <v>2</v>
@@ -5519,10 +5513,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
+        <v>174</v>
+      </c>
+      <c r="F96" t="s">
         <v>175</v>
-      </c>
-      <c r="F96" t="s">
-        <v>176</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -5548,10 +5542,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
+        <v>176</v>
+      </c>
+      <c r="F97" t="s">
         <v>177</v>
-      </c>
-      <c r="F97" t="s">
-        <v>178</v>
       </c>
       <c r="G97" t="n">
         <v>2</v>
@@ -5577,10 +5571,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
+        <v>178</v>
+      </c>
+      <c r="F98" t="s">
         <v>179</v>
-      </c>
-      <c r="F98" t="s">
-        <v>180</v>
       </c>
       <c r="G98" t="n">
         <v>5</v>
@@ -5635,10 +5629,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
+        <v>180</v>
+      </c>
+      <c r="F100" t="s">
         <v>181</v>
-      </c>
-      <c r="F100" t="s">
-        <v>182</v>
       </c>
       <c r="G100" t="n">
         <v>41</v>
@@ -5664,10 +5658,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
+        <v>182</v>
+      </c>
+      <c r="F101" t="s">
         <v>183</v>
-      </c>
-      <c r="F101" t="s">
-        <v>184</v>
       </c>
       <c r="G101" t="n">
         <v>4</v>
@@ -5693,10 +5687,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
+        <v>184</v>
+      </c>
+      <c r="F102" t="s">
         <v>185</v>
-      </c>
-      <c r="F102" t="s">
-        <v>186</v>
       </c>
       <c r="G102" t="n">
         <v>4</v>
@@ -5722,10 +5716,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
+        <v>186</v>
+      </c>
+      <c r="F103" t="s">
         <v>187</v>
-      </c>
-      <c r="F103" t="s">
-        <v>188</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -5751,10 +5745,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
+        <v>188</v>
+      </c>
+      <c r="F104" t="s">
         <v>189</v>
-      </c>
-      <c r="F104" t="s">
-        <v>190</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -5780,10 +5774,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
+        <v>190</v>
+      </c>
+      <c r="F105" t="s">
         <v>191</v>
-      </c>
-      <c r="F105" t="s">
-        <v>192</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -5809,10 +5803,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
+        <v>192</v>
+      </c>
+      <c r="F106" t="s">
         <v>193</v>
-      </c>
-      <c r="F106" t="s">
-        <v>194</v>
       </c>
       <c r="G106" t="n">
         <v>2</v>
@@ -5838,10 +5832,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
+        <v>194</v>
+      </c>
+      <c r="F107" t="s">
         <v>195</v>
-      </c>
-      <c r="F107" t="s">
-        <v>196</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -5896,10 +5890,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
+        <v>196</v>
+      </c>
+      <c r="F109" t="s">
         <v>197</v>
-      </c>
-      <c r="F109" t="s">
-        <v>198</v>
       </c>
       <c r="G109" t="n">
         <v>3</v>
@@ -5925,10 +5919,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
+        <v>198</v>
+      </c>
+      <c r="F110" t="s">
         <v>199</v>
-      </c>
-      <c r="F110" t="s">
-        <v>200</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -5954,10 +5948,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
+        <v>200</v>
+      </c>
+      <c r="F111" t="s">
         <v>201</v>
-      </c>
-      <c r="F111" t="s">
-        <v>202</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -6012,10 +6006,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
+        <v>202</v>
+      </c>
+      <c r="F113" t="s">
         <v>203</v>
-      </c>
-      <c r="F113" t="s">
-        <v>204</v>
       </c>
       <c r="G113" t="n">
         <v>4</v>
@@ -6041,10 +6035,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
+        <v>204</v>
+      </c>
+      <c r="F114" t="s">
         <v>205</v>
-      </c>
-      <c r="F114" t="s">
-        <v>206</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -6070,10 +6064,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
+        <v>206</v>
+      </c>
+      <c r="F115" t="s">
         <v>207</v>
-      </c>
-      <c r="F115" t="s">
-        <v>208</v>
       </c>
       <c r="G115" t="n">
         <v>4</v>
@@ -6099,10 +6093,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
+        <v>208</v>
+      </c>
+      <c r="F116" t="s">
         <v>209</v>
-      </c>
-      <c r="F116" t="s">
-        <v>210</v>
       </c>
       <c r="G116" t="n">
         <v>7</v>
@@ -6128,10 +6122,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
+        <v>210</v>
+      </c>
+      <c r="F117" t="s">
         <v>211</v>
-      </c>
-      <c r="F117" t="s">
-        <v>212</v>
       </c>
       <c r="G117" t="n">
         <v>2</v>
@@ -6157,10 +6151,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
+        <v>212</v>
+      </c>
+      <c r="F118" t="s">
         <v>213</v>
-      </c>
-      <c r="F118" t="s">
-        <v>214</v>
       </c>
       <c r="G118" t="n">
         <v>3</v>
@@ -6186,10 +6180,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
+        <v>214</v>
+      </c>
+      <c r="F119" t="s">
         <v>215</v>
-      </c>
-      <c r="F119" t="s">
-        <v>216</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -6215,10 +6209,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
+        <v>204</v>
+      </c>
+      <c r="F120" t="s">
         <v>205</v>
-      </c>
-      <c r="F120" t="s">
-        <v>206</v>
       </c>
       <c r="G120" t="n">
         <v>4</v>
@@ -6244,10 +6238,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
+        <v>216</v>
+      </c>
+      <c r="F121" t="s">
         <v>217</v>
-      </c>
-      <c r="F121" t="s">
-        <v>218</v>
       </c>
       <c r="G121" t="n">
         <v>2</v>
@@ -6273,10 +6267,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
+        <v>218</v>
+      </c>
+      <c r="F122" t="s">
         <v>219</v>
-      </c>
-      <c r="F122" t="s">
-        <v>220</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -6302,10 +6296,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
+        <v>220</v>
+      </c>
+      <c r="F123" t="s">
         <v>221</v>
-      </c>
-      <c r="F123" t="s">
-        <v>222</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -6360,10 +6354,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F125" t="s">
-        <v>224</v>
+        <v>12</v>
       </c>
       <c r="G125" t="n">
         <v>12</v>
@@ -6389,10 +6383,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F126" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G126" t="n">
         <v>8</v>
@@ -6418,10 +6412,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F127" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G127" t="n">
         <v>3</v>
@@ -6447,10 +6441,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F128" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G128" t="n">
         <v>2</v>
@@ -6476,10 +6470,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F129" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G129" t="n">
         <v>2</v>
@@ -6505,10 +6499,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F130" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G130" t="n">
         <v>3</v>
@@ -6534,10 +6528,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F131" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G131" t="n">
         <v>3</v>
@@ -6563,10 +6557,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F132" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G132" t="n">
         <v>3</v>
@@ -6592,10 +6586,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F133" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="G133" t="n">
         <v>3</v>
@@ -6621,10 +6615,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F134" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G134" t="n">
         <v>2</v>
@@ -6650,10 +6644,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F135" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G135" t="n">
         <v>3</v>
@@ -6679,10 +6673,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F136" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G136" t="n">
         <v>3</v>
@@ -6708,10 +6702,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F137" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G137" t="n">
         <v>3</v>
@@ -6737,10 +6731,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F138" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G138" t="n">
         <v>2</v>
@@ -6766,10 +6760,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F139" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G139" t="n">
         <v>3</v>
@@ -6795,10 +6789,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F140" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G140" t="n">
         <v>6</v>
@@ -6824,10 +6818,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F141" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -6853,10 +6847,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F142" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="G142" t="n">
         <v>6</v>
@@ -6882,10 +6876,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F143" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G143" t="n">
         <v>3</v>
@@ -6911,10 +6905,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F144" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -6940,10 +6934,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F145" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G145" t="n">
         <v>2</v>
@@ -6969,10 +6963,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F146" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="G146" t="n">
         <v>5</v>
@@ -6998,10 +6992,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F147" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G147" t="n">
         <v>3</v>
@@ -7027,10 +7021,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F148" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G148" t="n">
         <v>5</v>
@@ -7056,10 +7050,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F149" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G149" t="n">
         <v>2</v>
@@ -7085,10 +7079,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F150" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="G150" t="n">
         <v>3</v>
@@ -7114,10 +7108,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F151" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G151" t="n">
         <v>3</v>
@@ -7143,10 +7137,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F152" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="G152" t="n">
         <v>3</v>
@@ -7172,10 +7166,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F153" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -7201,10 +7195,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F154" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G154" t="n">
         <v>3</v>
@@ -7230,10 +7224,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F155" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G155" t="n">
         <v>3</v>
@@ -7259,10 +7253,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F156" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="G156" t="n">
         <v>2</v>
@@ -7288,10 +7282,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F157" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="G157" t="n">
         <v>3</v>
@@ -7317,10 +7311,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F158" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G158" t="n">
         <v>2</v>
@@ -7346,10 +7340,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F159" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="G159" t="n">
         <v>2</v>
@@ -7375,10 +7369,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F160" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="G160" t="n">
         <v>3</v>
@@ -7404,10 +7398,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="F161" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="G161" t="n">
         <v>4</v>
@@ -7433,10 +7427,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F162" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G162" t="n">
         <v>3</v>
@@ -7462,10 +7456,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F163" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G163" t="n">
         <v>3</v>
@@ -7491,10 +7485,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F164" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="G164" t="n">
         <v>3</v>
@@ -7520,10 +7514,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F165" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="G165" t="n">
         <v>3</v>
@@ -7549,10 +7543,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F166" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G166" t="n">
         <v>3</v>
@@ -7578,10 +7572,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F167" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="G167" t="n">
         <v>3</v>
@@ -7607,10 +7601,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F168" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -7636,10 +7630,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="F169" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="G169" t="n">
         <v>3</v>
@@ -7665,10 +7659,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="F170" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="G170" t="n">
         <v>2</v>
@@ -7694,10 +7688,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F171" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="G171" t="n">
         <v>3</v>
@@ -7723,10 +7717,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="F172" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="G172" t="n">
         <v>2</v>
@@ -7752,10 +7746,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="F173" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="G173" t="n">
         <v>2</v>
@@ -7781,10 +7775,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="F174" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="G174" t="n">
         <v>4</v>
@@ -7810,10 +7804,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F175" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="G175" t="n">
         <v>2</v>
@@ -7839,10 +7833,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="F176" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G176" t="n">
         <v>3</v>
@@ -7868,10 +7862,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="F177" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="G177" t="n">
         <v>3</v>
@@ -7897,10 +7891,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F178" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -7926,10 +7920,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F179" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="G179" t="n">
         <v>5</v>
@@ -7955,10 +7949,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="F180" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="G180" t="n">
         <v>6</v>
@@ -7984,10 +7978,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="F181" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -8013,10 +8007,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="F182" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -8042,10 +8036,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="F183" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="G183" t="n">
         <v>2</v>
@@ -8071,10 +8065,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="F184" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="G184" t="n">
         <v>3</v>
@@ -8100,10 +8094,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="F185" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="G185" t="n">
         <v>6</v>
@@ -8129,10 +8123,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="F186" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="G186" t="n">
         <v>5</v>
@@ -8158,10 +8152,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F187" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="G187" t="n">
         <v>3</v>
@@ -8187,10 +8181,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F188" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G188" t="n">
         <v>3</v>
@@ -8216,10 +8210,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="F189" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G189" t="n">
         <v>3</v>
@@ -8245,10 +8239,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="F190" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="G190" t="n">
         <v>5</v>
@@ -8274,10 +8268,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="F191" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="G191" t="n">
         <v>3</v>
@@ -8303,10 +8297,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="F192" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="G192" t="n">
         <v>4</v>
@@ -8332,10 +8326,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="F193" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="G193" t="n">
         <v>3</v>
@@ -8361,10 +8355,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="F194" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="G194" t="n">
         <v>7</v>
@@ -8390,10 +8384,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="F195" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="G195" t="n">
         <v>2</v>
@@ -8419,10 +8413,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="F196" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="G196" t="n">
         <v>6</v>
@@ -8448,10 +8442,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="F197" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="G197" t="n">
         <v>4</v>
@@ -8477,10 +8471,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="F198" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G198" t="n">
         <v>3</v>
@@ -8506,10 +8500,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F199" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G199" t="n">
         <v>4</v>
@@ -8535,10 +8529,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="F200" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -8564,10 +8558,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="F201" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="G201" t="n">
         <v>4</v>
@@ -8593,10 +8587,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F202" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="G202" t="n">
         <v>16</v>
@@ -8622,10 +8616,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F203" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="G203" t="n">
         <v>6</v>
@@ -8651,10 +8645,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="F204" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="G204" t="n">
         <v>74</v>
@@ -8680,10 +8674,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="F205" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="G205" t="n">
         <v>2</v>
@@ -8709,10 +8703,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="F206" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -8738,10 +8732,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="F207" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -8767,10 +8761,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="F208" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -8796,10 +8790,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F209" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -8825,10 +8819,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F210" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -8854,10 +8848,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="F211" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -8883,10 +8877,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="F212" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="G212" t="n">
         <v>1</v>
@@ -8912,10 +8906,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="F213" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -8941,10 +8935,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F214" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="G214" t="n">
         <v>6</v>
@@ -8970,10 +8964,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="F215" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -8999,10 +8993,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="F216" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="G216" t="n">
         <v>4</v>
@@ -9028,10 +9022,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="F217" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -9057,10 +9051,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="F218" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -9086,10 +9080,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F219" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -9115,10 +9109,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="F220" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="G220" t="n">
         <v>1</v>
@@ -9144,10 +9138,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="F221" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -9173,10 +9167,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F222" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="G222" t="n">
         <v>3</v>
@@ -9202,10 +9196,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F223" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -9231,10 +9225,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F224" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="G224" t="n">
         <v>2</v>
@@ -9260,10 +9254,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="F225" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -9289,10 +9283,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="F226" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="G226" t="n">
         <v>1</v>
@@ -9318,10 +9312,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="F227" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="G227" t="n">
         <v>1</v>
@@ -9347,10 +9341,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="F228" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="G228" t="n">
         <v>1</v>
@@ -9376,10 +9370,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="F229" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="G229" t="n">
         <v>1</v>
@@ -9405,10 +9399,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="F230" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="G230" t="n">
         <v>1</v>
@@ -9434,10 +9428,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="F231" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="G231" t="n">
         <v>1</v>
@@ -9463,10 +9457,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="F232" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="G232" t="n">
         <v>1</v>
@@ -9492,10 +9486,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="F233" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="G233" t="n">
         <v>1</v>
@@ -9521,10 +9515,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="F234" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="G234" t="n">
         <v>1</v>
@@ -9550,10 +9544,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="F235" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G235" t="n">
         <v>2</v>
@@ -9579,10 +9573,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="F236" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="G236" t="n">
         <v>2</v>
@@ -9608,10 +9602,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="F237" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="G237" t="n">
         <v>3</v>
@@ -9637,10 +9631,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="F238" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="G238" t="n">
         <v>2</v>
@@ -9666,10 +9660,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="F239" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="G239" t="n">
         <v>2</v>
@@ -9695,10 +9689,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="F240" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="G240" t="n">
         <v>2</v>
@@ -9724,10 +9718,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="F241" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="G241" t="n">
         <v>3</v>
@@ -9753,10 +9747,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="F242" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
@@ -9782,10 +9776,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="F243" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G243" t="n">
         <v>1</v>
@@ -9811,10 +9805,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="F244" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="G244" t="n">
         <v>1</v>
@@ -9840,10 +9834,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="F245" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="G245" t="n">
         <v>1</v>
@@ -9869,10 +9863,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="F246" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="G246" t="n">
         <v>1</v>
@@ -9898,10 +9892,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="F247" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="G247" t="n">
         <v>1</v>
@@ -9927,10 +9921,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="F248" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="G248" t="n">
         <v>3</v>
@@ -9956,10 +9950,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="F249" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="G249" t="n">
         <v>1</v>
@@ -9985,10 +9979,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="F250" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="G250" t="n">
         <v>1</v>
@@ -10014,10 +10008,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="F251" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="G251" t="n">
         <v>1</v>
@@ -10043,10 +10037,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="F252" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="G252" t="n">
         <v>1</v>
@@ -10072,10 +10066,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="F253" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="G253" t="n">
         <v>1</v>
@@ -10101,10 +10095,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="F254" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="G254" t="n">
         <v>1</v>
@@ -10130,10 +10124,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="F255" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="G255" t="n">
         <v>1</v>
@@ -10159,10 +10153,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="F256" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="G256" t="n">
         <v>1</v>
@@ -10188,10 +10182,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="F257" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="G257" t="n">
         <v>1</v>
@@ -10217,10 +10211,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="F258" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="G258" t="n">
         <v>1</v>
@@ -10246,10 +10240,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="F259" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="G259" t="n">
         <v>1</v>
@@ -10275,10 +10269,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="F260" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="G260" t="n">
         <v>1</v>
@@ -10304,10 +10298,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="F261" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="G261" t="n">
         <v>1</v>
@@ -10333,10 +10327,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="F262" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="G262" t="n">
         <v>1</v>
@@ -10362,10 +10356,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="F263" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="G263" t="n">
         <v>1</v>
@@ -10391,10 +10385,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="F264" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="G264" t="n">
         <v>1</v>
@@ -10420,10 +10414,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="F265" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="G265" t="n">
         <v>1</v>
@@ -10449,10 +10443,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="F266" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="G266" t="n">
         <v>1</v>
@@ -10478,10 +10472,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="F267" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="G267" t="n">
         <v>1</v>
@@ -10507,10 +10501,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="F268" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="G268" t="n">
         <v>1</v>
@@ -10536,10 +10530,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="F269" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="G269" t="n">
         <v>2</v>
@@ -10565,10 +10559,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="F270" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="G270" t="n">
         <v>1</v>
@@ -10594,10 +10588,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="F271" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="G271" t="n">
         <v>1</v>
@@ -10623,10 +10617,10 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="F272" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="G272" t="n">
         <v>2</v>
@@ -10652,10 +10646,10 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="F273" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="G273" t="n">
         <v>2</v>
@@ -10681,10 +10675,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="F274" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="G274" t="n">
         <v>2</v>
@@ -10710,10 +10704,10 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="F275" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="G275" t="n">
         <v>2</v>
@@ -10739,10 +10733,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="F276" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="G276" t="n">
         <v>2</v>
@@ -10768,10 +10762,10 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="F277" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="G277" t="n">
         <v>2</v>
@@ -10797,10 +10791,10 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="F278" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="G278" t="n">
         <v>4</v>
@@ -10826,10 +10820,10 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="F279" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="G279" t="n">
         <v>3</v>
@@ -10855,10 +10849,10 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="F280" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="G280" t="n">
         <v>1</v>
@@ -10884,10 +10878,10 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="F281" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="G281" t="n">
         <v>1</v>
@@ -10913,10 +10907,10 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="F282" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="G282" t="n">
         <v>1</v>
@@ -10942,10 +10936,10 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="F283" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="G283" t="n">
         <v>2</v>
@@ -10971,10 +10965,10 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="F284" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="G284" t="n">
         <v>2</v>
@@ -11000,10 +10994,10 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="F285" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="G285" t="n">
         <v>1</v>
@@ -11029,10 +11023,10 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="F286" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="G286" t="n">
         <v>2</v>
@@ -11058,10 +11052,10 @@
         <v>286</v>
       </c>
       <c r="E287" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="F287" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="G287" t="n">
         <v>2</v>
@@ -11087,10 +11081,10 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="F288" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="G288" t="n">
         <v>2</v>
@@ -11116,10 +11110,10 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="F289" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="G289" t="n">
         <v>2</v>
@@ -11145,10 +11139,10 @@
         <v>289</v>
       </c>
       <c r="E290" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="F290" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="G290" t="n">
         <v>1</v>
@@ -11174,10 +11168,10 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="F291" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="G291" t="n">
         <v>4</v>
@@ -11203,10 +11197,10 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="F292" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="G292" t="n">
         <v>3</v>
@@ -11232,10 +11226,10 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="F293" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="G293" t="n">
         <v>3</v>
@@ -11261,10 +11255,10 @@
         <v>293</v>
       </c>
       <c r="E294" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="F294" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="G294" t="n">
         <v>3</v>
@@ -11290,10 +11284,10 @@
         <v>294</v>
       </c>
       <c r="E295" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="F295" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="G295" t="n">
         <v>1</v>
@@ -11319,10 +11313,10 @@
         <v>295</v>
       </c>
       <c r="E296" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="F296" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="G296" t="n">
         <v>2</v>
@@ -11348,10 +11342,10 @@
         <v>296</v>
       </c>
       <c r="E297" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="F297" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="G297" t="n">
         <v>3</v>
@@ -11377,10 +11371,10 @@
         <v>297</v>
       </c>
       <c r="E298" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F298" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="G298" t="n">
         <v>1</v>
@@ -11406,10 +11400,10 @@
         <v>298</v>
       </c>
       <c r="E299" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="F299" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="G299" t="n">
         <v>1</v>
@@ -11435,10 +11429,10 @@
         <v>299</v>
       </c>
       <c r="E300" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="F300" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="G300" t="n">
         <v>1</v>
@@ -11464,10 +11458,10 @@
         <v>300</v>
       </c>
       <c r="E301" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="F301" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="G301" t="n">
         <v>1</v>
@@ -11493,10 +11487,10 @@
         <v>301</v>
       </c>
       <c r="E302" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="F302" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="G302" t="n">
         <v>3</v>
@@ -11522,10 +11516,10 @@
         <v>302</v>
       </c>
       <c r="E303" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="F303" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="G303" t="n">
         <v>3</v>
@@ -11551,10 +11545,10 @@
         <v>303</v>
       </c>
       <c r="E304" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="F304" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="G304" t="n">
         <v>1</v>
@@ -11580,10 +11574,10 @@
         <v>304</v>
       </c>
       <c r="E305" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="F305" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="G305" t="n">
         <v>2</v>
@@ -11609,10 +11603,10 @@
         <v>305</v>
       </c>
       <c r="E306" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="F306" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="G306" t="n">
         <v>3</v>
@@ -11638,10 +11632,10 @@
         <v>306</v>
       </c>
       <c r="E307" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="F307" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="G307" t="n">
         <v>2</v>
@@ -11667,10 +11661,10 @@
         <v>307</v>
       </c>
       <c r="E308" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="F308" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="G308" t="n">
         <v>3</v>
@@ -11696,10 +11690,10 @@
         <v>308</v>
       </c>
       <c r="E309" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="F309" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="G309" t="n">
         <v>1</v>
@@ -11725,10 +11719,10 @@
         <v>309</v>
       </c>
       <c r="E310" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="F310" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="G310" t="n">
         <v>2</v>
@@ -11754,10 +11748,10 @@
         <v>310</v>
       </c>
       <c r="E311" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="F311" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="G311" t="n">
         <v>2</v>
@@ -11783,10 +11777,10 @@
         <v>311</v>
       </c>
       <c r="E312" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="F312" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="G312" t="n">
         <v>3</v>
@@ -11812,10 +11806,10 @@
         <v>312</v>
       </c>
       <c r="E313" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="F313" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="G313" t="n">
         <v>1</v>
@@ -11841,10 +11835,10 @@
         <v>313</v>
       </c>
       <c r="E314" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="F314" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="G314" t="n">
         <v>2</v>
@@ -11870,10 +11864,10 @@
         <v>314</v>
       </c>
       <c r="E315" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="F315" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="G315" t="n">
         <v>1</v>
@@ -11899,10 +11893,10 @@
         <v>315</v>
       </c>
       <c r="E316" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="F316" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="G316" t="n">
         <v>1</v>
@@ -11928,10 +11922,10 @@
         <v>316</v>
       </c>
       <c r="E317" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="F317" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="G317" t="n">
         <v>1</v>
@@ -11957,10 +11951,10 @@
         <v>317</v>
       </c>
       <c r="E318" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="F318" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="G318" t="n">
         <v>1</v>
@@ -11986,10 +11980,10 @@
         <v>318</v>
       </c>
       <c r="E319" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="F319" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="G319" t="n">
         <v>2</v>
@@ -12015,10 +12009,10 @@
         <v>319</v>
       </c>
       <c r="E320" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="F320" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="G320" t="n">
         <v>2</v>
@@ -12044,10 +12038,10 @@
         <v>320</v>
       </c>
       <c r="E321" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="F321" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="G321" t="n">
         <v>1</v>
@@ -12073,10 +12067,10 @@
         <v>321</v>
       </c>
       <c r="E322" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="F322" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="G322" t="n">
         <v>2</v>
@@ -12102,10 +12096,10 @@
         <v>322</v>
       </c>
       <c r="E323" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="F323" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="G323" t="n">
         <v>1</v>
@@ -12131,10 +12125,10 @@
         <v>323</v>
       </c>
       <c r="E324" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="F324" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="G324" t="n">
         <v>1</v>
@@ -12160,10 +12154,10 @@
         <v>324</v>
       </c>
       <c r="E325" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="F325" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="G325" t="n">
         <v>1</v>
@@ -12189,10 +12183,10 @@
         <v>325</v>
       </c>
       <c r="E326" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="F326" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="G326" t="n">
         <v>1</v>
@@ -12218,10 +12212,10 @@
         <v>326</v>
       </c>
       <c r="E327" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="F327" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="G327" t="n">
         <v>1</v>
@@ -12247,10 +12241,10 @@
         <v>327</v>
       </c>
       <c r="E328" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="F328" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="G328" t="n">
         <v>1</v>
@@ -12276,10 +12270,10 @@
         <v>328</v>
       </c>
       <c r="E329" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="F329" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="G329" t="n">
         <v>2</v>
@@ -12305,10 +12299,10 @@
         <v>329</v>
       </c>
       <c r="E330" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="F330" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="G330" t="n">
         <v>2</v>
@@ -12334,10 +12328,10 @@
         <v>330</v>
       </c>
       <c r="E331" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="F331" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="G331" t="n">
         <v>1</v>
@@ -12363,10 +12357,10 @@
         <v>331</v>
       </c>
       <c r="E332" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="F332" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="G332" t="n">
         <v>2</v>
@@ -12392,10 +12386,10 @@
         <v>332</v>
       </c>
       <c r="E333" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="F333" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="G333" t="n">
         <v>2</v>
@@ -12421,10 +12415,10 @@
         <v>333</v>
       </c>
       <c r="E334" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="F334" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="G334" t="n">
         <v>1</v>
@@ -12450,10 +12444,10 @@
         <v>334</v>
       </c>
       <c r="E335" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="F335" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="G335" t="n">
         <v>1</v>
@@ -12479,10 +12473,10 @@
         <v>335</v>
       </c>
       <c r="E336" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="F336" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="G336" t="n">
         <v>1</v>
@@ -12508,10 +12502,10 @@
         <v>336</v>
       </c>
       <c r="E337" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="F337" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="G337" t="n">
         <v>1</v>
@@ -12537,10 +12531,10 @@
         <v>337</v>
       </c>
       <c r="E338" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="F338" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="G338" t="n">
         <v>2</v>
@@ -12566,10 +12560,10 @@
         <v>338</v>
       </c>
       <c r="E339" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="F339" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="G339" t="n">
         <v>1</v>
@@ -12595,10 +12589,10 @@
         <v>339</v>
       </c>
       <c r="E340" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="F340" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="G340" t="n">
         <v>2</v>
@@ -12624,10 +12618,10 @@
         <v>340</v>
       </c>
       <c r="E341" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="F341" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="G341" t="n">
         <v>3</v>
@@ -12653,10 +12647,10 @@
         <v>341</v>
       </c>
       <c r="E342" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="F342" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="G342" t="n">
         <v>1</v>
@@ -12682,10 +12676,10 @@
         <v>342</v>
       </c>
       <c r="E343" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F343" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="G343" t="n">
         <v>3</v>
@@ -12711,10 +12705,10 @@
         <v>343</v>
       </c>
       <c r="E344" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="F344" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="G344" t="n">
         <v>1</v>
@@ -12740,10 +12734,10 @@
         <v>344</v>
       </c>
       <c r="E345" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="F345" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="G345" t="n">
         <v>4</v>
@@ -12769,10 +12763,10 @@
         <v>345</v>
       </c>
       <c r="E346" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F346" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="G346" t="n">
         <v>3</v>
@@ -12798,10 +12792,10 @@
         <v>346</v>
       </c>
       <c r="E347" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="F347" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="G347" t="n">
         <v>2</v>
@@ -12827,10 +12821,10 @@
         <v>347</v>
       </c>
       <c r="E348" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="F348" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="G348" t="n">
         <v>4</v>
@@ -12856,10 +12850,10 @@
         <v>348</v>
       </c>
       <c r="E349" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="F349" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="G349" t="n">
         <v>2</v>
@@ -12885,10 +12879,10 @@
         <v>349</v>
       </c>
       <c r="E350" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="F350" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="G350" t="n">
         <v>2</v>
@@ -12914,10 +12908,10 @@
         <v>350</v>
       </c>
       <c r="E351" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F351" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="G351" t="n">
         <v>2</v>
@@ -12943,10 +12937,10 @@
         <v>351</v>
       </c>
       <c r="E352" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="F352" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="G352" t="n">
         <v>2</v>
@@ -12972,10 +12966,10 @@
         <v>352</v>
       </c>
       <c r="E353" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="F353" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="G353" t="n">
         <v>1</v>
@@ -13001,10 +12995,10 @@
         <v>353</v>
       </c>
       <c r="E354" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="F354" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="G354" t="n">
         <v>1</v>
@@ -13030,10 +13024,10 @@
         <v>354</v>
       </c>
       <c r="E355" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="F355" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="G355" t="n">
         <v>1</v>
@@ -13059,10 +13053,10 @@
         <v>355</v>
       </c>
       <c r="E356" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="F356" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="G356" t="n">
         <v>1</v>
@@ -13088,10 +13082,10 @@
         <v>356</v>
       </c>
       <c r="E357" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="F357" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="G357" t="n">
         <v>1</v>
@@ -13117,10 +13111,10 @@
         <v>357</v>
       </c>
       <c r="E358" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="F358" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="G358" t="n">
         <v>2</v>
@@ -13146,10 +13140,10 @@
         <v>358</v>
       </c>
       <c r="E359" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="F359" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="G359" t="n">
         <v>1</v>
@@ -13175,10 +13169,10 @@
         <v>359</v>
       </c>
       <c r="E360" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="F360" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="G360" t="n">
         <v>2</v>
@@ -13204,10 +13198,10 @@
         <v>360</v>
       </c>
       <c r="E361" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="F361" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="G361" t="n">
         <v>2</v>
@@ -13233,10 +13227,10 @@
         <v>361</v>
       </c>
       <c r="E362" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="F362" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="G362" t="n">
         <v>5</v>
@@ -13262,10 +13256,10 @@
         <v>362</v>
       </c>
       <c r="E363" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="F363" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="G363" t="n">
         <v>1</v>
@@ -13291,10 +13285,10 @@
         <v>363</v>
       </c>
       <c r="E364" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="F364" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="G364" t="n">
         <v>2</v>
@@ -13320,10 +13314,10 @@
         <v>364</v>
       </c>
       <c r="E365" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="F365" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="G365" t="n">
         <v>2</v>
@@ -13349,10 +13343,10 @@
         <v>365</v>
       </c>
       <c r="E366" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="F366" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="G366" t="n">
         <v>3</v>
@@ -13378,10 +13372,10 @@
         <v>366</v>
       </c>
       <c r="E367" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="F367" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="G367" t="n">
         <v>1</v>
@@ -13407,10 +13401,10 @@
         <v>367</v>
       </c>
       <c r="E368" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="F368" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="G368" t="n">
         <v>2</v>
@@ -13436,10 +13430,10 @@
         <v>368</v>
       </c>
       <c r="E369" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="F369" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="G369" t="n">
         <v>1</v>
@@ -13465,10 +13459,10 @@
         <v>369</v>
       </c>
       <c r="E370" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="F370" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="G370" t="n">
         <v>3</v>
@@ -13494,10 +13488,10 @@
         <v>370</v>
       </c>
       <c r="E371" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="F371" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="G371" t="n">
         <v>1</v>
@@ -13523,10 +13517,10 @@
         <v>371</v>
       </c>
       <c r="E372" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="F372" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="G372" t="n">
         <v>3</v>
@@ -13552,10 +13546,10 @@
         <v>372</v>
       </c>
       <c r="E373" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="F373" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="G373" t="n">
         <v>1</v>
@@ -13581,10 +13575,10 @@
         <v>373</v>
       </c>
       <c r="E374" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="F374" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="G374" t="n">
         <v>1</v>
@@ -13610,10 +13604,10 @@
         <v>374</v>
       </c>
       <c r="E375" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="F375" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="G375" t="n">
         <v>1</v>
@@ -13639,10 +13633,10 @@
         <v>375</v>
       </c>
       <c r="E376" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="F376" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="G376" t="n">
         <v>1</v>
@@ -13668,10 +13662,10 @@
         <v>376</v>
       </c>
       <c r="E377" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="F377" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="G377" t="n">
         <v>3</v>
@@ -13697,10 +13691,10 @@
         <v>377</v>
       </c>
       <c r="E378" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="F378" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="G378" t="n">
         <v>1</v>
@@ -13726,10 +13720,10 @@
         <v>378</v>
       </c>
       <c r="E379" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="F379" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="G379" t="n">
         <v>1</v>
@@ -13755,10 +13749,10 @@
         <v>379</v>
       </c>
       <c r="E380" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="F380" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="G380" t="n">
         <v>1</v>
@@ -13784,10 +13778,10 @@
         <v>380</v>
       </c>
       <c r="E381" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="F381" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="G381" t="n">
         <v>1</v>
@@ -13813,10 +13807,10 @@
         <v>381</v>
       </c>
       <c r="E382" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="F382" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="G382" t="n">
         <v>1</v>
@@ -13842,10 +13836,10 @@
         <v>382</v>
       </c>
       <c r="E383" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="F383" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="G383" t="n">
         <v>1</v>
@@ -13871,10 +13865,10 @@
         <v>383</v>
       </c>
       <c r="E384" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="F384" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="G384" t="n">
         <v>1</v>
@@ -13900,10 +13894,10 @@
         <v>384</v>
       </c>
       <c r="E385" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="F385" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="G385" t="n">
         <v>1</v>
@@ -13929,10 +13923,10 @@
         <v>385</v>
       </c>
       <c r="E386" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="F386" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="G386" t="n">
         <v>1</v>
@@ -13958,10 +13952,10 @@
         <v>386</v>
       </c>
       <c r="E387" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="F387" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="G387" t="n">
         <v>1</v>
@@ -13987,10 +13981,10 @@
         <v>387</v>
       </c>
       <c r="E388" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="F388" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="G388" t="n">
         <v>1</v>
@@ -14016,10 +14010,10 @@
         <v>388</v>
       </c>
       <c r="E389" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="F389" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="G389" t="n">
         <v>1</v>
@@ -14045,10 +14039,10 @@
         <v>389</v>
       </c>
       <c r="E390" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="F390" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="G390" t="n">
         <v>1</v>
@@ -14074,10 +14068,10 @@
         <v>390</v>
       </c>
       <c r="E391" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="F391" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="G391" t="n">
         <v>1</v>
@@ -14103,10 +14097,10 @@
         <v>391</v>
       </c>
       <c r="E392" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="F392" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="G392" t="n">
         <v>1</v>
@@ -14132,10 +14126,10 @@
         <v>392</v>
       </c>
       <c r="E393" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="F393" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="G393" t="n">
         <v>1</v>
@@ -14161,10 +14155,10 @@
         <v>393</v>
       </c>
       <c r="E394" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="F394" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="G394" t="n">
         <v>3</v>
@@ -14190,10 +14184,10 @@
         <v>394</v>
       </c>
       <c r="E395" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="F395" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="G395" t="n">
         <v>1</v>
@@ -14219,10 +14213,10 @@
         <v>395</v>
       </c>
       <c r="E396" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="F396" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="G396" t="n">
         <v>1</v>
@@ -14248,10 +14242,10 @@
         <v>396</v>
       </c>
       <c r="E397" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="F397" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="G397" t="n">
         <v>1</v>
@@ -14277,10 +14271,10 @@
         <v>397</v>
       </c>
       <c r="E398" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="F398" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="G398" t="n">
         <v>1</v>
@@ -14306,10 +14300,10 @@
         <v>398</v>
       </c>
       <c r="E399" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="F399" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="G399" t="n">
         <v>1</v>
@@ -14335,10 +14329,10 @@
         <v>399</v>
       </c>
       <c r="E400" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="F400" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="G400" t="n">
         <v>1</v>
@@ -14364,10 +14358,10 @@
         <v>400</v>
       </c>
       <c r="E401" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="F401" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="G401" t="n">
         <v>1</v>
@@ -14393,10 +14387,10 @@
         <v>401</v>
       </c>
       <c r="E402" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="F402" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="G402" t="n">
         <v>1</v>
@@ -14422,10 +14416,10 @@
         <v>402</v>
       </c>
       <c r="E403" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="F403" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="G403" t="n">
         <v>1</v>
@@ -14451,10 +14445,10 @@
         <v>403</v>
       </c>
       <c r="E404" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="F404" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="G404" t="n">
         <v>1</v>
@@ -14480,10 +14474,10 @@
         <v>404</v>
       </c>
       <c r="E405" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="F405" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="G405" t="n">
         <v>1</v>
@@ -14509,10 +14503,10 @@
         <v>405</v>
       </c>
       <c r="E406" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="F406" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="G406" t="n">
         <v>1</v>
@@ -14538,10 +14532,10 @@
         <v>406</v>
       </c>
       <c r="E407" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="F407" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="G407" t="n">
         <v>1</v>
@@ -14567,10 +14561,10 @@
         <v>407</v>
       </c>
       <c r="E408" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="F408" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="G408" t="n">
         <v>19</v>
@@ -14596,10 +14590,10 @@
         <v>408</v>
       </c>
       <c r="E409" t="s">
+        <v>787</v>
+      </c>
+      <c r="F409" t="s">
         <v>789</v>
-      </c>
-      <c r="F409" t="s">
-        <v>791</v>
       </c>
       <c r="G409" t="n">
         <v>1</v>
@@ -14625,10 +14619,10 @@
         <v>409</v>
       </c>
       <c r="E410" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="F410" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="G410" t="n">
         <v>2</v>
